--- a/Velocity.xlsx
+++ b/Velocity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afsiy\Desktop\Winter 2021\Comp-3350\Iteration-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Danny D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F0064-1D3A-4C55-9E89-B5F2CA82F0CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81FD6C3-317E-4671-82D7-F0211B51E3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22830" yWindow="3060" windowWidth="19800" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Iteration-1</t>
   </si>
@@ -111,24 +111,9 @@
     <t>Tutorial</t>
   </si>
   <si>
-    <t>Delete from calander</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 day </t>
-  </si>
-  <si>
     <t>0.5 days</t>
   </si>
   <si>
-    <t>edit from calendar</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>Marking done from calendar</t>
-  </si>
-  <si>
     <t>1 days</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>Iteration-3</t>
   </si>
   <si>
-    <t>60 Hours</t>
-  </si>
-  <si>
     <t>80 Hours</t>
   </si>
   <si>
@@ -151,6 +133,36 @@
   </si>
   <si>
     <t>60.8 Hours</t>
+  </si>
+  <si>
+    <t>Check deleted task</t>
+  </si>
+  <si>
+    <t>Interactive calendar</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>time estimato</t>
+  </si>
+  <si>
+    <t>120 Hours</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>Time Spent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Estimated </t>
   </si>
 </sst>
 </file>
@@ -238,6 +250,1012 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Time Estimated </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>  vs T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>i</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>me Spent</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Estimated </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$29:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Iteration-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iteration-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iteration-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C97D-44B4-A586-DF23BD2F7A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$29:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Iteration-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iteration-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iteration-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C97D-44B4-A586-DF23BD2F7A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="507688280"/>
+        <c:axId val="507687952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507688280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507687952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507687952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507688280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6AC53F-09AC-4D40-8122-EDA657287FB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,21 +1521,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,7 +1549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +1563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +1577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -573,7 +1591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,18 +1602,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -609,7 +1627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -623,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -637,7 +1655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -651,7 +1669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -665,17 +1683,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>27</v>
@@ -687,99 +1716,145 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>72</v>
+      </c>
+      <c r="C29" s="3">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3">
+        <v>80</v>
+      </c>
+      <c r="C30" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>37</v>
+      <c r="B31" s="3">
+        <v>120</v>
+      </c>
+      <c r="C31" s="3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>